--- a/Power/TIM PBoB BOM.xlsx
+++ b/Power/TIM PBoB BOM.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juzz\Documents\Balloon_Support_Electronics\Power\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D037C9-0969-4149-B85A-607E84B90964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -58,28 +67,28 @@
     <t>Relay switch</t>
   </si>
   <si>
-    <t>RT314A24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not necessary on 3mu and optional number on RB. </t>
-  </si>
-  <si>
     <t>50R 0805 Resistor</t>
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">If using 2 micros this resistor needs to changed. Check </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>design guide</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
   </si>
@@ -271,15 +280,21 @@
   </si>
   <si>
     <t>97-3057-1010</t>
+  </si>
+  <si>
+    <t>RT314F24</t>
+  </si>
+  <si>
+    <t>Not necessary on 3mu and optional number on RB. (The RT314 - A - 24 will not work)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="21" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -287,92 +302,114 @@
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF221ABB"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="17.0"/>
+      <sz val="17"/>
       <color rgb="FF222222"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -380,7 +417,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -396,14 +433,23 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -415,19 +461,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -436,210 +491,166 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFBDBDBD"/>
           <bgColor rgb="FFBDBDBD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:F36" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:F36">
   <tableColumns count="6">
-    <tableColumn name="Component" id="1"/>
-    <tableColumn name="# on Relay Board" id="2"/>
-    <tableColumn name="# on triple micro" id="3"/>
-    <tableColumn name="# on front panel" id="4"/>
-    <tableColumn name="Digikey Part #" id="5"/>
-    <tableColumn name="Comments" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Component"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="# on Relay Board"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="# on triple micro"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="# on front panel"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Digikey Part #"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comments"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -829,708 +840,714 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.13"/>
-    <col customWidth="1" min="2" max="2" width="12.13"/>
-    <col customWidth="1" min="3" max="3" width="8.5"/>
-    <col customWidth="1" min="4" max="4" width="9.75"/>
-    <col customWidth="1" min="5" max="5" width="18.38"/>
-    <col customWidth="1" min="6" max="6" width="178.25"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.71875" customWidth="1"/>
+    <col min="5" max="5" width="18.38671875" customWidth="1"/>
+    <col min="6" max="6" width="178.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15">
-        <v>11.0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="13">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="B8" s="16">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21" t="s">
+      <c r="B9" s="16">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="18">
-        <v>7.0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="17" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21" t="s">
+      <c r="B11" s="16">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="B12" s="16">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="17" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="C12" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21" t="s">
+      <c r="B13" s="16">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21" t="s">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="B17" s="16">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="17" t="s">
+      <c r="B18" s="16">
+        <v>4</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="B19" s="16">
+        <v>2</v>
+      </c>
+      <c r="C19" s="16">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="18" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.6" x14ac:dyDescent="0.45">
+      <c r="A22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="17" t="s">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="s">
+      <c r="F22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="23" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="B23" s="16">
+        <v>10</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="17" t="s">
+      <c r="F23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="18" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="17" t="s">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.6" x14ac:dyDescent="0.45">
+      <c r="A25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="B25" s="16">
+        <v>2</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="17" t="s">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="B26" s="16">
+        <v>12</v>
+      </c>
+      <c r="C26" s="16">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="18">
-        <v>12.0</v>
-      </c>
-      <c r="C26" s="18">
-        <v>12.0</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="18" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="B27" s="16">
+        <v>40</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="17" t="s">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="18">
-        <v>40.0</v>
-      </c>
-      <c r="C27" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="25" t="s">
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="17" t="s">
+      <c r="F28" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="E28" s="18" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A29" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="B29" s="24">
+        <v>0</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="30" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="B30" s="24">
+        <v>0</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
+      <c r="F30" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="C30" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="28" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A31" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="B31" s="29">
+        <v>0</v>
+      </c>
+      <c r="C31" s="29">
+        <v>0</v>
+      </c>
+      <c r="D31" s="30">
+        <v>10</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="32" t="s">
+      <c r="F31" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="33">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="E31" s="35" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A32" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="B32" s="24">
+        <v>0</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+      <c r="D32" s="24">
+        <v>11</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="36" t="s">
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A33" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="C32" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="28">
-        <v>11.0</v>
-      </c>
-      <c r="E32" s="28" t="s">
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="25">
+        <v>11</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="F33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="29">
-        <v>11.0</v>
-      </c>
-      <c r="E33" s="18" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A34" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="B34" s="24">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="36" t="s">
+      <c r="F34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="C34" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="38" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A35" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="B35" s="24">
+        <v>0</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="27" t="s">
+      <c r="F35" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="C35" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="D35" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="38" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="21.6" x14ac:dyDescent="0.75">
+      <c r="A36" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="B36" s="24">
+        <v>0</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0</v>
+      </c>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="C36" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="40"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="F36" s="35"/>
+    </row>
+    <row r="39" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F7"/>
-    <hyperlink r:id="rId2" ref="E25"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Power/TIM PBoB BOM.xlsx
+++ b/Power/TIM PBoB BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juzz\Documents\Balloon_Support_Electronics\Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D037C9-0969-4149-B85A-607E84B90964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1E70B-E6E6-49C1-8991-2609DF6CE0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,8 +852,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
